--- a/biology/Histoire de la zoologie et de la botanique/Margaretta_Morris/Margaretta_Morris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Margaretta_Morris/Margaretta_Morris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Margaretta Hare Morris, née le 3 décembre 1797 à Philadelphie et morte le 29 mai 1867 (à 69 ans), est une entomologiste américaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Margaretta Hare Morris, née le 3 décembre 1797 à Philadelphie et morte le 29 mai 1867 (à 69 ans), est une entomologiste américaine.
 Margaretta Morris et l’astronome Maria Mitchell ont été les premières femmes élues à l'Association américaine pour l'avancement des sciences en 1850. Elle est la deuxième femme élue à l'Académie des sciences naturelles de Philadelphie en 1859, après Lucy Say .
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaretta Morris est l’une des six enfants de Luke Morris (1760-1802), un avocat, et d’Ann Willing Morris (1767-1853). Formées par des professeurs particuliers, dont Thomas Nuttall, Thomas Say et Charles Alexandre Lesueur, les sœurs Morris, en particulier Margaretta et sa sœur botaniste Elizabeth Carrington Morris, font partie de la grande communauté scientifique du XIXe siècle. Margaretta et Elizabeth vivaient dans la même maison à Germantown où elles réalisaient la plupart de leurs expériences scientifiques. Elles assistaient régulièrement à des conférences à l'Académie de Germantown (en). Les sœurs faisaient partie d'un réseau comprenant Asa Gray, William Darlington, Thaddeus William Harris, Louis Agassiz, Dorothea Dix, Mary Roberdeau et Isabella Batchelder James, avec qui elles partageaient leurs spécimens et leurs découvertes.
 </t>
@@ -543,7 +557,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaretta Morris a étudié les habitudes des mouches du blé qui ressemblent à la mouche de Hesse, concluant que les œufs étaient pondus dans le grain plutôt que dans la tige comme on le pensait auparavant. 
 Elle a également étudié les cigales périodiques et les champignons en tant que ravageurs botaniques. 
